--- a/41-Weakness Popups 弱点弹出窗口.xlsx
+++ b/41-Weakness Popups 弱点弹出窗口.xlsx
@@ -4,21 +4,122 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12420"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="插件参数" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="93">
   <si>
     <t>Critical Popup Settings</t>
+  </si>
+  <si>
+    <t>Stack Offset X</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">如果与弱点叠加，则偏移弹出的x位置。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">负：左；正：右。    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仅限暴击Popups</t>
+    </r>
+  </si>
+  <si>
+    <t>+48</t>
+  </si>
+  <si>
+    <t>Stack Offset Y</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">如果与弱点叠加，则偏移弹出的y位置。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>负：上；正：下。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>仅限暴击Popups</t>
+    </r>
+  </si>
+  <si>
+    <t>-48</t>
   </si>
   <si>
     <t>General</t>
@@ -63,6 +164,86 @@
     <t xml:space="preserve">DIKANG  </t>
   </si>
   <si>
+    <t>Custom Animation</t>
+  </si>
+  <si>
+    <t>自定义动画</t>
+  </si>
+  <si>
+    <t>Animation ID:</t>
+  </si>
+  <si>
+    <r>
+      <t>当弱点效果激活时播放此动画。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要VisuMZ_0_CoreEngine</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mirror Animation:</t>
+  </si>
+  <si>
+    <r>
+      <t>镜像</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>弱点效果动画？。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要VisuMZ_0_CoreEngine</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">  Mute Animation:</t>
+  </si>
+  <si>
+    <r>
+      <t>静音</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>弱点效果动画？。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>需要VisuMZ_0_CoreEngine</t>
+    </r>
+  </si>
+  <si>
     <t>Render</t>
   </si>
   <si>
@@ -279,14 +460,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -374,55 +555,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -467,6 +612,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -512,15 +672,57 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0070C0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -571,49 +773,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -625,121 +911,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,21 +964,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -809,6 +996,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -867,152 +1069,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1028,6 +1230,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1037,7 +1242,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1094,52 +1299,52 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
+    <cellStyle name="货币" xfId="2" builtinId="4"/>
+    <cellStyle name="百分比" xfId="3" builtinId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
+    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
+    <cellStyle name="超链接" xfId="6" builtinId="8"/>
+    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
+    <cellStyle name="注释" xfId="8" builtinId="10"/>
+    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
+    <cellStyle name="标题" xfId="10" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
+    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
     <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="输入" xfId="16" builtinId="20"/>
+    <cellStyle name="输出" xfId="17" builtinId="21"/>
+    <cellStyle name="计算" xfId="18" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
+    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="好" xfId="22" builtinId="26"/>
+    <cellStyle name="差" xfId="23" builtinId="27"/>
+    <cellStyle name="适中" xfId="24" builtinId="28"/>
+    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
+    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
+    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
+    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
     <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
@@ -1450,15 +1655,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="17.875" customWidth="1"/>
+    <col min="1" max="1" width="22.125" customWidth="1"/>
     <col min="2" max="2" width="47.75" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="20.5" style="3" customWidth="1"/>
@@ -1469,452 +1674,511 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:1">
-      <c r="A2" s="5" t="s">
+    <row r="3" ht="25.5" spans="1:3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="b">
+    </row>
+    <row r="4" ht="25.5" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" spans="1:1">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:1">
-      <c r="A5" s="5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" ht="27" spans="1:7">
-      <c r="A6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" ht="14.25" spans="1:1">
-      <c r="A8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
+    <row r="9" ht="14.25" spans="1:1">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="10" t="s">
+    </row>
+    <row r="10" ht="27" spans="1:7">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="11" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="G10" t="s">
         <v>13</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="5"/>
+    </row>
+    <row r="12" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A12" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="13" t="s">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C12" t="s">
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="B14" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="15" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B15" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="16" t="s">
+    </row>
+    <row r="17" ht="14.25" spans="1:1">
+      <c r="A17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="17" t="s">
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="10" t="s">
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="B19" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="18" t="s">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="16" t="s">
+      <c r="C20" t="s">
         <v>28</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="16" t="s">
+      <c r="D20" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="18"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="16" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="16" t="s">
+      <c r="B21" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D18" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="18"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="16" t="s">
+      <c r="C21" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="16" t="s">
+      <c r="D21" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" t="s">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" t="s">
+      <c r="B22" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="12" t="s">
-        <v>15</v>
+      <c r="C22" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="A23" s="18" t="s">
         <v>37</v>
       </c>
+      <c r="B23" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="20" t="s">
-        <v>39</v>
+      <c r="A24" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" spans="4:4">
-      <c r="D27" s="22"/>
-    </row>
-    <row r="28" s="2" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A28" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="24"/>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" t="s">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="B29" t="s">
+      <c r="D25" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="19"/>
+      <c r="B26" s="20"/>
+      <c r="C26" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="D26" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="19"/>
+      <c r="B27" s="20"/>
+      <c r="C27" s="17" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" t="s">
+      <c r="D27" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="19"/>
+      <c r="B28" s="20"/>
+      <c r="C28" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="B30" t="s">
+      <c r="D28" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+      <c r="C29" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C30" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" t="s">
+      <c r="D29" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" t="s">
         <v>48</v>
       </c>
-      <c r="B31" t="s">
+      <c r="D30" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="D31" s="13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" t="s">
         <v>50</v>
       </c>
-      <c r="C32" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" s="2" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A33" s="23" t="s">
+      <c r="D32" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" t="s">
-        <v>52</v>
-      </c>
-      <c r="B34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C34" s="3" t="s">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" t="s">
         <v>54</v>
       </c>
-      <c r="D34" s="3" t="s">
+      <c r="D34" s="22" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
-      <c r="A35" t="s">
+    <row r="36" s="1" customFormat="1" spans="4:4">
+      <c r="D36" s="23"/>
+    </row>
+    <row r="37" s="2" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A37" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="D37" s="25"/>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
         <v>57</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="B38" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>60</v>
-      </c>
-      <c r="B36" s="25"/>
-      <c r="C36" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="D36" s="3" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B37" s="25" t="s">
-        <v>62</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>64</v>
-      </c>
-      <c r="B38" s="25"/>
       <c r="C38" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D38" s="3" t="s">
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
+        <v>61</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" s="2" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A39" s="23" t="s">
+      <c r="C40" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" s="2" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A42" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="25"/>
-      <c r="C41" s="3">
-        <v>0</v>
-      </c>
-      <c r="D41" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" t="s">
-        <v>69</v>
-      </c>
-      <c r="B42" s="25" t="s">
-        <v>70</v>
-      </c>
-      <c r="C42" s="3">
-        <v>-0.05</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>71</v>
-      </c>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25"/>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
+        <v>66</v>
+      </c>
+      <c r="B43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="3">
-        <v>0</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="44" s="2" customFormat="1" ht="14.25" spans="1:4">
-      <c r="A44" s="23" t="s">
+      <c r="D44" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
         <v>74</v>
       </c>
-      <c r="B45" t="s">
-        <v>75</v>
-      </c>
-      <c r="C45" s="3">
-        <v>40</v>
+      <c r="B45" s="26"/>
+      <c r="C45" s="3" t="s">
+        <v>72</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D46" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B46" t="s">
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" t="s">
         <v>78</v>
       </c>
-      <c r="C46" s="3">
+      <c r="B47" s="26"/>
+      <c r="C47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" s="2" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A48" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C48" s="25"/>
+      <c r="D48" s="25"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" t="s">
+        <v>80</v>
+      </c>
+      <c r="B49" s="26" t="s">
+        <v>81</v>
+      </c>
+      <c r="C49" s="3">
+        <v>0</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="26"/>
+      <c r="C50" s="3">
+        <v>0</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" t="s">
+        <v>83</v>
+      </c>
+      <c r="B51" s="26" t="s">
+        <v>84</v>
+      </c>
+      <c r="C51" s="3">
+        <v>-0.05</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="26"/>
+      <c r="C52" s="3">
+        <v>0</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="53" s="2" customFormat="1" ht="14.25" spans="1:4">
+      <c r="A53" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C53" s="25"/>
+      <c r="D53" s="25"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="3">
+        <v>40</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="3">
         <v>20</v>
       </c>
-      <c r="D46" s="3" t="s">
-        <v>55</v>
+      <c r="D55" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
